--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_speed_coherence.xlsx
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.283059120178223</v>
+        <v>8.283090591430664</v>
       </c>
       <c r="C2" t="n">
-        <v>14.95429801940918</v>
+        <v>14.95436668395996</v>
       </c>
       <c r="D2" t="n">
-        <v>5.563325881958008</v>
+        <v>5.563395977020264</v>
       </c>
       <c r="E2" t="n">
-        <v>8.71662425994873</v>
+        <v>8.716751098632812</v>
       </c>
       <c r="F2" t="n">
         <v>4.850933074951172</v>
       </c>
       <c r="G2" t="n">
-        <v>6.072166442871094</v>
+        <v>6.072222232818604</v>
       </c>
       <c r="H2" t="n">
         <v>4.576694488525391</v>
@@ -499,7 +499,7 @@
         <v>6.321121215820312</v>
       </c>
       <c r="J2" t="n">
-        <v>5.422142505645752</v>
+        <v>5.420856952667236</v>
       </c>
       <c r="K2" t="n">
         <v>2.969056606292725</v>
@@ -515,37 +515,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9191588756645689</v>
+        <v>0.9191583203880683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9780384561055386</v>
+        <v>0.9780381454062138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8986437235660149</v>
+        <v>0.8986395281862538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9185943588473443</v>
+        <v>0.9185935356639537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8632799526055653</v>
+        <v>0.8632787699169583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8742521809207069</v>
+        <v>0.874251550104883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8518459969315647</v>
+        <v>0.8518438772721724</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8989528094496683</v>
+        <v>0.8989519521454784</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9161796433585031</v>
+        <v>0.9161031544208527</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7144163177823121</v>
+        <v>0.7144178017130438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8677315026521683</v>
+        <v>0.867730975151062</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DCs_non_Cd3g_exprs_seurat_clusters_speed_coherence.xlsx
@@ -434,38 +434,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -475,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.283090591430664</v>
+        <v>8.283059120178223</v>
       </c>
       <c r="C2" t="n">
-        <v>14.95436668395996</v>
+        <v>14.95429801940918</v>
       </c>
       <c r="D2" t="n">
-        <v>5.563395977020264</v>
+        <v>5.563325881958008</v>
       </c>
       <c r="E2" t="n">
-        <v>8.716751098632812</v>
+        <v>8.71662425994873</v>
       </c>
       <c r="F2" t="n">
         <v>4.850933074951172</v>
       </c>
       <c r="G2" t="n">
-        <v>6.072222232818604</v>
+        <v>6.072166442871094</v>
       </c>
       <c r="H2" t="n">
         <v>4.576694488525391</v>
@@ -499,7 +521,7 @@
         <v>6.321121215820312</v>
       </c>
       <c r="J2" t="n">
-        <v>5.420856952667236</v>
+        <v>5.422142505645752</v>
       </c>
       <c r="K2" t="n">
         <v>2.969056606292725</v>
@@ -515,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9191583203880683</v>
+        <v>0.9191588756645689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9780381454062138</v>
+        <v>0.9780384561055386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8986395281862538</v>
+        <v>0.8986437235660149</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9185935356639537</v>
+        <v>0.9185943588473443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8632787699169583</v>
+        <v>0.8632799526055653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.874251550104883</v>
+        <v>0.8742521809207069</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8518438772721724</v>
+        <v>0.8518459969315647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8989519521454784</v>
+        <v>0.8989528094496683</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9161031544208527</v>
+        <v>0.9161796433585031</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7144178017130438</v>
+        <v>0.7144163177823121</v>
       </c>
       <c r="L3" t="n">
-        <v>0.867730975151062</v>
+        <v>0.8677315026521683</v>
       </c>
     </row>
   </sheetData>
